--- a/August'21/31.08.2021/Hello Daffodils Balance Transfer August-2021.xlsx
+++ b/August'21/31.08.2021/Hello Daffodils Balance Transfer August-2021.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -182,9 +182,6 @@
     <t>Sojol</t>
   </si>
   <si>
-    <t>14.07.2021</t>
-  </si>
-  <si>
     <t>Shahadot</t>
   </si>
   <si>
@@ -194,64 +191,16 @@
     <t>18.07.2021</t>
   </si>
   <si>
-    <t>24.07.2021</t>
-  </si>
-  <si>
     <t>Rony</t>
-  </si>
-  <si>
-    <t>26.07.2021</t>
-  </si>
-  <si>
-    <t>31.07.2021</t>
   </si>
   <si>
     <t>Due List-July'2021</t>
   </si>
   <si>
-    <t>01.08.2021</t>
-  </si>
-  <si>
-    <t>02.08.2021</t>
-  </si>
-  <si>
-    <t>03.08.2021</t>
-  </si>
-  <si>
-    <t>04.08.2021</t>
-  </si>
-  <si>
-    <t>05.08.2021</t>
-  </si>
-  <si>
-    <t>07.08.2021</t>
-  </si>
-  <si>
-    <t>08.08.2021</t>
-  </si>
-  <si>
     <t>09.08.2021</t>
   </si>
   <si>
-    <t>10.08.2021</t>
-  </si>
-  <si>
-    <t>11.08.2021</t>
-  </si>
-  <si>
-    <t>12.08.2021</t>
-  </si>
-  <si>
-    <t>14.08.2021</t>
-  </si>
-  <si>
-    <t>15.08.2021</t>
-  </si>
-  <si>
     <t>16.08.2021</t>
-  </si>
-  <si>
-    <t>17.08.2021</t>
   </si>
   <si>
     <t>Sadek</t>
@@ -260,28 +209,13 @@
     <t>18.08.2021</t>
   </si>
   <si>
-    <t>19.08.2021</t>
-  </si>
-  <si>
-    <t>21.08.2021</t>
-  </si>
-  <si>
     <t>22.08.2021</t>
-  </si>
-  <si>
-    <t>23.08.2021</t>
   </si>
   <si>
     <t>24.08.2021</t>
   </si>
   <si>
-    <t>25.08.2021</t>
-  </si>
-  <si>
     <t>26.08.2021</t>
-  </si>
-  <si>
-    <t>28.08.2021</t>
   </si>
   <si>
     <t>29.08.2021</t>
@@ -291,6 +225,9 @@
   </si>
   <si>
     <t>31.08.2021</t>
+  </si>
+  <si>
+    <t>01.09.2021</t>
   </si>
 </sst>
 </file>
@@ -1333,8 +1270,8 @@
   <dimension ref="A1:BH238"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
+      <pane ySplit="5" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1675,18 +1612,18 @@
     </row>
     <row r="6" spans="1:60" ht="12.6" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1">
-        <v>122662</v>
+        <v>163863</v>
       </c>
       <c r="C6" s="1">
-        <v>332037</v>
+        <v>323884</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1">
         <f>C6+D6</f>
-        <v>332037</v>
+        <v>323884</v>
       </c>
       <c r="F6" s="77"/>
       <c r="G6" s="18"/>
@@ -1745,19 +1682,13 @@
       <c r="BH6" s="6"/>
     </row>
     <row r="7" spans="1:60" ht="12.6" customHeight="1">
-      <c r="A7" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="1">
-        <v>94530</v>
-      </c>
-      <c r="C7" s="1">
-        <v>36062</v>
-      </c>
+      <c r="A7" s="13"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
         <f t="shared" ref="E7:E33" si="0">C7+D7</f>
-        <v>36062</v>
+        <v>0</v>
       </c>
       <c r="F7" s="77"/>
       <c r="G7" s="78"/>
@@ -1816,19 +1747,13 @@
       <c r="BH7" s="6"/>
     </row>
     <row r="8" spans="1:60" ht="12.6" customHeight="1">
-      <c r="A8" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="1">
-        <v>271834</v>
-      </c>
-      <c r="C8" s="1">
-        <v>261486</v>
-      </c>
+      <c r="A8" s="57"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>261486</v>
+        <v>0</v>
       </c>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
@@ -1887,19 +1812,13 @@
       <c r="BH8" s="6"/>
     </row>
     <row r="9" spans="1:60" ht="12.6" customHeight="1">
-      <c r="A9" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="1">
-        <v>211373</v>
-      </c>
-      <c r="C9" s="1">
-        <v>204609</v>
-      </c>
+      <c r="A9" s="13"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>204609</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="18"/>
@@ -1958,19 +1877,13 @@
       <c r="BH9" s="6"/>
     </row>
     <row r="10" spans="1:60" ht="12" customHeight="1">
-      <c r="A10" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="1">
-        <v>258815</v>
-      </c>
-      <c r="C10" s="1">
-        <v>236984</v>
-      </c>
+      <c r="A10" s="13"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>236984</v>
+        <v>0</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="18"/>
@@ -2029,19 +1942,13 @@
       <c r="BH10" s="6"/>
     </row>
     <row r="11" spans="1:60" ht="12.6" customHeight="1">
-      <c r="A11" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="1">
-        <v>204401</v>
-      </c>
-      <c r="C11" s="1">
-        <v>168725</v>
-      </c>
+      <c r="A11" s="13"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>168725</v>
+        <v>0</v>
       </c>
       <c r="F11" s="86"/>
       <c r="G11" s="18"/>
@@ -2100,19 +2007,13 @@
       <c r="BH11" s="6"/>
     </row>
     <row r="12" spans="1:60" ht="12.6" customHeight="1">
-      <c r="A12" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="1">
-        <v>208139</v>
-      </c>
-      <c r="C12" s="1">
-        <v>297698</v>
-      </c>
+      <c r="A12" s="13"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>297698</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="22"/>
@@ -2171,19 +2072,13 @@
       <c r="BH12" s="6"/>
     </row>
     <row r="13" spans="1:60" ht="12.6" customHeight="1">
-      <c r="A13" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="1">
-        <v>221615</v>
-      </c>
-      <c r="C13" s="1">
-        <v>234522</v>
-      </c>
+      <c r="A13" s="13"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>234522</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="22"/>
@@ -2242,19 +2137,13 @@
       <c r="BH13" s="6"/>
     </row>
     <row r="14" spans="1:60" ht="12.6" customHeight="1">
-      <c r="A14" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="1">
-        <v>508169</v>
-      </c>
-      <c r="C14" s="1">
-        <v>346043</v>
-      </c>
+      <c r="A14" s="13"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>346043</v>
+        <v>0</v>
       </c>
       <c r="F14" s="86"/>
       <c r="G14" s="18"/>
@@ -2313,19 +2202,13 @@
       <c r="BH14" s="6"/>
     </row>
     <row r="15" spans="1:60" ht="12.6" customHeight="1">
-      <c r="A15" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="1">
-        <v>185185</v>
-      </c>
-      <c r="C15" s="1">
-        <v>323268</v>
-      </c>
+      <c r="A15" s="13"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>323268</v>
+        <v>0</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="18"/>
@@ -2384,19 +2267,13 @@
       <c r="BH15" s="6"/>
     </row>
     <row r="16" spans="1:60" ht="12.6" customHeight="1">
-      <c r="A16" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="1">
-        <v>203529</v>
-      </c>
-      <c r="C16" s="1">
-        <v>269454</v>
-      </c>
+      <c r="A16" s="13"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>269454</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="22"/>
@@ -2455,19 +2332,13 @@
       <c r="BH16" s="6"/>
     </row>
     <row r="17" spans="1:60" ht="12.6" customHeight="1">
-      <c r="A17" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="1">
-        <v>194390</v>
-      </c>
-      <c r="C17" s="1">
-        <v>165553</v>
-      </c>
+      <c r="A17" s="13"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
         <f t="shared" si="0"/>
-        <v>165553</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="22"/>
@@ -2526,19 +2397,13 @@
       <c r="BH17" s="6"/>
     </row>
     <row r="18" spans="1:60" ht="12.6" customHeight="1">
-      <c r="A18" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="1">
-        <v>174079</v>
-      </c>
-      <c r="C18" s="1">
-        <v>206615</v>
-      </c>
+      <c r="A18" s="13"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>206615</v>
+        <v>0</v>
       </c>
       <c r="F18" s="77"/>
       <c r="G18" s="78"/>
@@ -2597,19 +2462,13 @@
       <c r="BH18" s="6"/>
     </row>
     <row r="19" spans="1:60" ht="12.6" customHeight="1">
-      <c r="A19" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="1">
-        <v>234381</v>
-      </c>
-      <c r="C19" s="1">
-        <v>225063</v>
-      </c>
+      <c r="A19" s="13"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>225063</v>
+        <v>0</v>
       </c>
       <c r="F19" s="86"/>
       <c r="G19" s="18"/>
@@ -2668,19 +2527,13 @@
       <c r="BH19" s="6"/>
     </row>
     <row r="20" spans="1:60" ht="12.6" customHeight="1">
-      <c r="A20" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="1">
-        <v>219978</v>
-      </c>
-      <c r="C20" s="1">
-        <v>221471</v>
-      </c>
+      <c r="A20" s="13"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>221471</v>
+        <v>0</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="18"/>
@@ -2739,19 +2592,13 @@
       <c r="BH20" s="6"/>
     </row>
     <row r="21" spans="1:60" ht="12.6" customHeight="1">
-      <c r="A21" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="1">
-        <v>469993</v>
-      </c>
-      <c r="C21" s="1">
-        <v>419529</v>
-      </c>
+      <c r="A21" s="13"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>419529</v>
+        <v>0</v>
       </c>
       <c r="F21" s="77"/>
       <c r="G21" s="18"/>
@@ -2810,19 +2657,13 @@
       <c r="BH21" s="6"/>
     </row>
     <row r="22" spans="1:60" ht="12.6" customHeight="1">
-      <c r="A22" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="1">
-        <v>543650</v>
-      </c>
-      <c r="C22" s="1">
-        <v>511603</v>
-      </c>
+      <c r="A22" s="13"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>511603</v>
+        <v>0</v>
       </c>
       <c r="F22" s="77"/>
       <c r="G22" s="18"/>
@@ -2881,19 +2722,13 @@
       <c r="BH22" s="6"/>
     </row>
     <row r="23" spans="1:60" ht="12.6" customHeight="1">
-      <c r="A23" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="1">
-        <v>342436</v>
-      </c>
-      <c r="C23" s="1">
-        <v>221411</v>
-      </c>
+      <c r="A23" s="13"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1">
         <f>C23+D23</f>
-        <v>221411</v>
+        <v>0</v>
       </c>
       <c r="F23" s="77"/>
       <c r="G23" s="18"/>
@@ -2952,19 +2787,13 @@
       <c r="BH23" s="6"/>
     </row>
     <row r="24" spans="1:60" ht="12.6" customHeight="1">
-      <c r="A24" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="1">
-        <v>175387</v>
-      </c>
-      <c r="C24" s="1">
-        <v>292138</v>
-      </c>
+      <c r="A24" s="13"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>292138</v>
+        <v>0</v>
       </c>
       <c r="F24" s="77"/>
       <c r="G24" s="78"/>
@@ -3023,19 +2852,13 @@
       <c r="BH24" s="6"/>
     </row>
     <row r="25" spans="1:60" ht="12.6" customHeight="1">
-      <c r="A25" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="1">
-        <v>179288</v>
-      </c>
-      <c r="C25" s="1">
-        <v>154472</v>
-      </c>
+      <c r="A25" s="13"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>154472</v>
+        <v>0</v>
       </c>
       <c r="F25" s="77"/>
       <c r="G25" s="78"/>
@@ -3094,19 +2917,13 @@
       <c r="BH25" s="6"/>
     </row>
     <row r="26" spans="1:60" ht="12.6" customHeight="1">
-      <c r="A26" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="1">
-        <v>196780</v>
-      </c>
-      <c r="C26" s="1">
-        <v>181696</v>
-      </c>
+      <c r="A26" s="13"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1">
         <f t="shared" si="0"/>
-        <v>181696</v>
+        <v>0</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="18"/>
@@ -3165,19 +2982,13 @@
       <c r="BH26" s="6"/>
     </row>
     <row r="27" spans="1:60" ht="12.6" customHeight="1">
-      <c r="A27" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="1">
-        <v>183969</v>
-      </c>
-      <c r="C27" s="1">
-        <v>251838</v>
-      </c>
+      <c r="A27" s="13"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
         <f t="shared" si="0"/>
-        <v>251838</v>
+        <v>0</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="18"/>
@@ -3236,19 +3047,13 @@
       <c r="BH27" s="6"/>
     </row>
     <row r="28" spans="1:60" ht="12.6" customHeight="1">
-      <c r="A28" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="1">
-        <v>259693</v>
-      </c>
-      <c r="C28" s="1">
-        <v>228544</v>
-      </c>
+      <c r="A28" s="13"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
         <f t="shared" si="0"/>
-        <v>228544</v>
+        <v>0</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="18"/>
@@ -3307,19 +3112,13 @@
       <c r="BH28" s="6"/>
     </row>
     <row r="29" spans="1:60" ht="12.6" customHeight="1">
-      <c r="A29" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="1">
-        <v>229112</v>
-      </c>
-      <c r="C29" s="1">
-        <v>307138</v>
-      </c>
+      <c r="A29" s="13"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
         <f t="shared" si="0"/>
-        <v>307138</v>
+        <v>0</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="18"/>
@@ -3378,19 +3177,13 @@
       <c r="BH29" s="6"/>
     </row>
     <row r="30" spans="1:60" ht="12.6" customHeight="1">
-      <c r="A30" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="1">
-        <v>260131</v>
-      </c>
-      <c r="C30" s="1">
-        <v>219676</v>
-      </c>
+      <c r="A30" s="13"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1">
         <f t="shared" si="0"/>
-        <v>219676</v>
+        <v>0</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="18"/>
@@ -3449,19 +3242,13 @@
       <c r="BH30" s="6"/>
     </row>
     <row r="31" spans="1:60" ht="12.6" customHeight="1">
-      <c r="A31" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="1">
-        <v>571963</v>
-      </c>
-      <c r="C31" s="1">
-        <v>457070</v>
-      </c>
+      <c r="A31" s="13"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
         <f t="shared" si="0"/>
-        <v>457070</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="79"/>
@@ -3520,19 +3307,13 @@
       <c r="BH31" s="6"/>
     </row>
     <row r="32" spans="1:60" ht="12.6" customHeight="1">
-      <c r="A32" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="1">
-        <v>664567</v>
-      </c>
-      <c r="C32" s="1">
-        <v>684365</v>
-      </c>
+      <c r="A32" s="13"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1">
         <f t="shared" si="0"/>
-        <v>684365</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="81"/>
@@ -3660,11 +3441,11 @@
       </c>
       <c r="B34" s="1">
         <f>SUM(B6:B33)</f>
-        <v>7390049</v>
+        <v>163863</v>
       </c>
       <c r="C34" s="1">
         <f>SUM(C6:C33)</f>
-        <v>7459070</v>
+        <v>323884</v>
       </c>
       <c r="D34" s="1">
         <f>SUM(D6:D33)</f>
@@ -3672,11 +3453,11 @@
       </c>
       <c r="E34" s="1">
         <f>SUM(E6:E33)</f>
-        <v>7459070</v>
+        <v>323884</v>
       </c>
       <c r="F34" s="1">
         <f>B34-E34</f>
-        <v>-69021</v>
+        <v>-160021</v>
       </c>
       <c r="G34" s="63"/>
       <c r="H34" s="85"/>
@@ -3939,7 +3720,7 @@
         <v>21434</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -4006,7 +3787,7 @@
         <v>9900</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -4064,7 +3845,7 @@
     </row>
     <row r="40" spans="1:60" ht="12.6" customHeight="1">
       <c r="A40" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="45" t="s">
         <v>33</v>
@@ -4073,7 +3854,7 @@
         <v>5000</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -4491,7 +4272,7 @@
         <v>12</v>
       </c>
       <c r="F47" s="117" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G47" s="118"/>
       <c r="H47" s="119"/>
@@ -4555,10 +4336,10 @@
         <v>31</v>
       </c>
       <c r="G48" s="67">
-        <v>21431</v>
+        <v>21434</v>
       </c>
       <c r="H48" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I48" s="22"/>
       <c r="J48" s="6"/>
@@ -4621,10 +4402,10 @@
         <v>30</v>
       </c>
       <c r="G49" s="67">
-        <v>10900</v>
+        <v>9900</v>
       </c>
       <c r="H49" s="69" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I49" s="22"/>
       <c r="J49" s="6"/>
@@ -4685,20 +4466,20 @@
         <v>34</v>
       </c>
       <c r="C50" s="53">
-        <v>30105</v>
+        <v>33305</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G50" s="67">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="H50" s="69" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I50" s="22"/>
       <c r="J50" s="6"/>
@@ -4762,17 +4543,17 @@
         <v>11078</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="66" t="s">
         <v>14</v>
       </c>
       <c r="G51" s="67">
-        <v>29453</v>
+        <v>30105</v>
       </c>
       <c r="H51" s="69" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I51" s="22"/>
       <c r="J51" s="6"/>
@@ -4843,10 +4624,10 @@
         <v>21</v>
       </c>
       <c r="G52" s="67">
-        <v>18942</v>
+        <v>11078</v>
       </c>
       <c r="H52" s="69" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I52" s="22"/>
       <c r="J52" s="6"/>
@@ -4907,10 +4688,10 @@
         <v>34</v>
       </c>
       <c r="C53" s="53">
-        <v>1813</v>
-      </c>
-      <c r="D53" s="33" t="s">
-        <v>80</v>
+        <v>4743</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="70" t="s">
@@ -4984,17 +4765,17 @@
         <v>600</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="70" t="s">
         <v>17</v>
       </c>
       <c r="G54" s="71">
-        <v>23503</v>
+        <v>1813</v>
       </c>
       <c r="H54" s="68" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I54" s="22"/>
       <c r="J54" s="6"/>
@@ -5058,15 +4839,17 @@
         <v>13406</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="G55" s="71"/>
+      <c r="G55" s="71">
+        <v>600</v>
+      </c>
       <c r="H55" s="68" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I55" s="22"/>
       <c r="J55" s="6"/>
@@ -5130,17 +4913,17 @@
         <v>31763</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="70" t="s">
         <v>18</v>
       </c>
       <c r="G56" s="71">
-        <v>24346</v>
+        <v>13406</v>
       </c>
       <c r="H56" s="68" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I56" s="22"/>
       <c r="J56" s="6"/>
@@ -5204,17 +4987,17 @@
         <v>11496</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="70" t="s">
         <v>19</v>
       </c>
       <c r="G57" s="71">
-        <v>18563</v>
+        <v>31763</v>
       </c>
       <c r="H57" s="68" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I57" s="22"/>
       <c r="J57" s="6"/>
@@ -5269,7 +5052,7 @@
     </row>
     <row r="58" spans="1:60" ht="12" customHeight="1">
       <c r="A58" s="49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B58" s="33" t="s">
         <v>34</v>
@@ -5278,17 +5061,17 @@
         <v>2000</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="72" t="s">
         <v>20</v>
       </c>
       <c r="G58" s="71">
-        <v>13301</v>
+        <v>11496</v>
       </c>
       <c r="H58" s="68" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I58" s="22"/>
       <c r="J58" s="6"/>
@@ -5354,15 +5137,17 @@
         <v>3320</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="G59" s="71"/>
+        <v>47</v>
+      </c>
+      <c r="G59" s="71">
+        <v>2000</v>
+      </c>
       <c r="H59" s="68" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I59" s="22"/>
       <c r="J59" s="6"/>
@@ -5425,20 +5210,20 @@
         <v>34</v>
       </c>
       <c r="C60" s="54">
-        <v>57607</v>
+        <v>6892</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="68" t="s">
         <v>22</v>
       </c>
       <c r="G60" s="71">
-        <v>32092</v>
+        <v>3320</v>
       </c>
       <c r="H60" s="68" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I60" s="22"/>
       <c r="J60" s="6"/>
@@ -5504,17 +5289,17 @@
         <v>44358</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="70" t="s">
         <v>23</v>
       </c>
       <c r="G61" s="71">
-        <v>21838</v>
+        <v>57607</v>
       </c>
       <c r="H61" s="68" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I61" s="22"/>
       <c r="J61" s="6"/>
@@ -5578,7 +5363,7 @@
       </c>
       <c r="C62" s="55"/>
       <c r="D62" s="33" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>12</v>
@@ -5587,10 +5372,10 @@
         <v>24</v>
       </c>
       <c r="G62" s="71">
-        <v>54838</v>
+        <v>44358</v>
       </c>
       <c r="H62" s="68" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I62" s="22"/>
       <c r="J62" s="6"/>
@@ -5656,17 +5441,15 @@
         <v>12174</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="G63" s="71">
-        <v>30300</v>
-      </c>
+      <c r="G63" s="71"/>
       <c r="H63" s="68" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I63" s="22"/>
       <c r="J63" s="6"/>
@@ -5732,17 +5515,17 @@
         <v>6294</v>
       </c>
       <c r="D64" s="37" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="72" t="s">
         <v>29</v>
       </c>
       <c r="G64" s="71">
-        <v>10050</v>
+        <v>12174</v>
       </c>
       <c r="H64" s="68" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I64" s="22"/>
       <c r="J64" s="6"/>
@@ -5805,20 +5588,20 @@
         <v>34</v>
       </c>
       <c r="C65" s="53">
-        <v>48900</v>
+        <v>700</v>
       </c>
       <c r="D65" s="37" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="68" t="s">
         <v>25</v>
       </c>
       <c r="G65" s="71">
-        <v>8199</v>
+        <v>6294</v>
       </c>
       <c r="H65" s="68" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I65" s="22"/>
       <c r="J65" s="6"/>
@@ -5881,20 +5664,20 @@
         <v>34</v>
       </c>
       <c r="C66" s="53">
-        <v>7044</v>
+        <v>5044</v>
       </c>
       <c r="D66" s="37" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="72" t="s">
         <v>26</v>
       </c>
       <c r="G66" s="71">
-        <v>45161</v>
+        <v>48900</v>
       </c>
       <c r="H66" s="68" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I66" s="22"/>
       <c r="J66" s="6"/>
@@ -5960,17 +5743,17 @@
         <v>473</v>
       </c>
       <c r="D67" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="72" t="s">
         <v>27</v>
       </c>
       <c r="G67" s="71">
-        <v>17444</v>
+        <v>7044</v>
       </c>
       <c r="H67" s="68" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I67" s="22"/>
       <c r="J67" s="6"/>
@@ -6034,7 +5817,7 @@
       </c>
       <c r="C68" s="53"/>
       <c r="D68" s="34" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="72" t="s">
@@ -6044,7 +5827,7 @@
         <v>473</v>
       </c>
       <c r="H68" s="68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I68" s="22"/>
       <c r="J68" s="6"/>
@@ -6110,17 +5893,15 @@
         <v>4800</v>
       </c>
       <c r="D69" s="58" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="G69" s="74">
-        <v>2000</v>
-      </c>
+      <c r="G69" s="74"/>
       <c r="H69" s="68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I69" s="22"/>
       <c r="J69" s="52"/>
@@ -6186,17 +5967,17 @@
         <v>1181</v>
       </c>
       <c r="D70" s="34" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="68" t="s">
         <v>37</v>
       </c>
       <c r="G70" s="71">
-        <v>50165</v>
+        <v>4800</v>
       </c>
       <c r="H70" s="68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I70" s="22"/>
       <c r="J70" s="22"/>
@@ -6259,20 +6040,20 @@
         <v>34</v>
       </c>
       <c r="C71" s="53">
-        <v>1950</v>
+        <v>3650</v>
       </c>
       <c r="D71" s="34" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="75" t="s">
         <v>39</v>
       </c>
       <c r="G71" s="71">
-        <v>6120</v>
+        <v>1181</v>
       </c>
       <c r="H71" s="68" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I71" s="62"/>
       <c r="J71" s="22"/>
@@ -6335,20 +6116,20 @@
         <v>34</v>
       </c>
       <c r="C72" s="53">
-        <v>15047</v>
+        <v>4606</v>
       </c>
       <c r="D72" s="34" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="68" t="s">
         <v>42</v>
       </c>
       <c r="G72" s="71">
-        <v>5000</v>
+        <v>1950</v>
       </c>
       <c r="H72" s="68" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I72" s="22"/>
       <c r="J72" s="22"/>
@@ -6405,26 +6186,26 @@
     </row>
     <row r="73" spans="1:60" ht="12.75" customHeight="1">
       <c r="A73" s="33" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B73" s="33" t="s">
         <v>34</v>
       </c>
       <c r="C73" s="53">
-        <v>67565</v>
+        <v>11070</v>
       </c>
       <c r="D73" s="34" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="72" t="s">
         <v>43</v>
       </c>
       <c r="G73" s="71">
-        <v>27210</v>
+        <v>15047</v>
       </c>
       <c r="H73" s="68" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I73" s="22"/>
       <c r="J73" s="22"/>
@@ -6485,9 +6266,15 @@
       <c r="C74" s="53"/>
       <c r="D74" s="34"/>
       <c r="E74" s="2"/>
-      <c r="F74" s="68"/>
-      <c r="G74" s="67"/>
-      <c r="H74" s="68"/>
+      <c r="F74" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="G74" s="67">
+        <v>67565</v>
+      </c>
+      <c r="H74" s="68" t="s">
+        <v>58</v>
+      </c>
       <c r="I74" s="22"/>
       <c r="J74" s="22"/>
       <c r="K74" s="22"/>
@@ -6858,7 +6645,7 @@
       <c r="B80" s="121"/>
       <c r="C80" s="101">
         <f>SUM(C38:C79)</f>
-        <v>423963</v>
+        <v>263942</v>
       </c>
       <c r="D80" s="102"/>
       <c r="E80" s="5"/>
@@ -6867,7 +6654,7 @@
       </c>
       <c r="G80" s="103">
         <f>SUM(G48:G79)</f>
-        <v>492984</v>
+        <v>423963</v>
       </c>
       <c r="H80" s="95"/>
       <c r="I80" s="18"/>
